--- a/backend/web/uploads/Копия grid-export-7.xlsx
+++ b/backend/web/uploads/Копия grid-export-7.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="190">
   <si>
     <t>#</t>
   </si>
@@ -587,16 +587,13 @@
   </si>
   <si>
     <t>156EA5 4л.</t>
-  </si>
-  <si>
-    <t>Фильтр масленный 77</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -607,6 +604,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -770,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -789,6 +793,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1087,9 +1094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1140,8 +1147,8 @@
       <c r="B2" s="3">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>190</v>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>1000</v>
@@ -1198,7 +1205,7 @@
       <c r="B4" s="3">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="3">
@@ -1225,7 +1232,7 @@
       <c r="B5" s="3">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3">

--- a/backend/web/uploads/Копия grid-export-7.xlsx
+++ b/backend/web/uploads/Копия grid-export-7.xlsx
@@ -1063,9 +1063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
